--- a/data/Magdelenian horses.xlsx
+++ b/data/Magdelenian horses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniel/Workspace/Neo4j/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniel/Workspace/MagNeo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t xml:space="preserve">Lat </t>
   </si>
@@ -230,40 +230,13 @@
     <t>Layer Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Age (U =0, M =1, L=2) </t>
-  </si>
-  <si>
-    <t>`Courbet 1`</t>
-  </si>
-  <si>
-    <t>`Courbet 0`</t>
-  </si>
-  <si>
-    <t>`El Pendo 2`</t>
-  </si>
-  <si>
-    <t>`El Pendo 0`</t>
-  </si>
-  <si>
-    <t>`La Madeleine 1`</t>
-  </si>
-  <si>
-    <t>`La Madeleine 0`</t>
-  </si>
-  <si>
-    <t>`Mas d'Azil 1`</t>
-  </si>
-  <si>
-    <t>`Mas d'Azil 0`</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cypher Create Statements for Layers </t>
   </si>
   <si>
-    <t>`Abauntz 0`</t>
-  </si>
-  <si>
-    <t>`Arancou 0`</t>
+    <t>`Abauntz`</t>
+  </si>
+  <si>
+    <t>`Arancou`</t>
   </si>
   <si>
     <r>
@@ -276,14 +249,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>édeilhac 1`</t>
-    </r>
-  </si>
-  <si>
-    <t>`Brassempouy 1`</t>
-  </si>
-  <si>
-    <t>`Cepoy 0`</t>
+      <t>édeilhac`</t>
+    </r>
+  </si>
+  <si>
+    <t>`Brassempouy`</t>
+  </si>
+  <si>
+    <t>`Cepoy`</t>
+  </si>
+  <si>
+    <t>`Courbet`</t>
+  </si>
+  <si>
+    <t>`El Pendo`</t>
   </si>
   <si>
     <r>
@@ -296,14 +275,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>éne 1`</t>
-    </r>
-  </si>
-  <si>
-    <t>`Espalungue 1`</t>
-  </si>
-  <si>
-    <t>`Étiolles 1`</t>
+      <t>éne`</t>
+    </r>
+  </si>
+  <si>
+    <t>`Espalungue`</t>
+  </si>
+  <si>
+    <t>`Étiolles`</t>
   </si>
   <si>
     <r>
@@ -316,17 +295,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>és 0`</t>
-    </r>
-  </si>
-  <si>
-    <t>`Gazel 1`</t>
-  </si>
-  <si>
-    <t>`Gourdan 1`</t>
-  </si>
-  <si>
-    <t>`Isturitz 1`</t>
+      <t>és`</t>
+    </r>
+  </si>
+  <si>
+    <t>`Gazel`</t>
+  </si>
+  <si>
+    <t>`Gourdan`</t>
+  </si>
+  <si>
+    <t>`Isturitz`</t>
   </si>
   <si>
     <r>
@@ -339,20 +318,23 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ére 0`</t>
-    </r>
-  </si>
-  <si>
-    <t>`La Crouzade 1`</t>
-  </si>
-  <si>
-    <t>`La Garma 1`</t>
-  </si>
-  <si>
-    <t>`La Paloma 1`</t>
-  </si>
-  <si>
-    <t>`La Vache 0`</t>
+      <t>ére`</t>
+    </r>
+  </si>
+  <si>
+    <t>`La Crouzade`</t>
+  </si>
+  <si>
+    <t>`La Garma`</t>
+  </si>
+  <si>
+    <t>`La Madeleine`</t>
+  </si>
+  <si>
+    <t>`La Paloma`</t>
+  </si>
+  <si>
+    <t>`La Vache`</t>
   </si>
   <si>
     <r>
@@ -365,17 +347,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ña 1`</t>
-    </r>
-  </si>
-  <si>
-    <t>`Labastide 1`</t>
-  </si>
-  <si>
-    <t>`Las Caldas 1`</t>
-  </si>
-  <si>
-    <t>`Laugerie-Basse 1`</t>
+      <t>ña`</t>
+    </r>
+  </si>
+  <si>
+    <t>`Labastide`</t>
+  </si>
+  <si>
+    <t>`Las Caldas`</t>
+  </si>
+  <si>
+    <t>`Laugerie-Basse`</t>
   </si>
   <si>
     <r>
@@ -388,38 +370,44 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>élugues 1`</t>
-    </r>
-  </si>
-  <si>
-    <t>`Lespugue-Harpons 1`</t>
-  </si>
-  <si>
-    <t>`Limeuil 0`</t>
-  </si>
-  <si>
-    <t>`Lortet 0`</t>
-  </si>
-  <si>
-    <t>`Massat 2`</t>
-  </si>
-  <si>
-    <t>`Montastruc 1`</t>
-  </si>
-  <si>
-    <t>`Saint-Michel 1`</t>
-  </si>
-  <si>
-    <t>`Tito Bustillo 1`</t>
-  </si>
-  <si>
-    <t>`Torre 0`</t>
-  </si>
-  <si>
-    <t>`Tuc d'Audoubert 1`</t>
-  </si>
-  <si>
-    <t>`Villepin 0`</t>
+      <t>élugues`</t>
+    </r>
+  </si>
+  <si>
+    <t>`Lespugue-Harpons`</t>
+  </si>
+  <si>
+    <t>`Limeuil`</t>
+  </si>
+  <si>
+    <t>`Lortet`</t>
+  </si>
+  <si>
+    <t>`Mas d'Azil`</t>
+  </si>
+  <si>
+    <t>`Massat`</t>
+  </si>
+  <si>
+    <t>`Montastruc`</t>
+  </si>
+  <si>
+    <t>`Saint-Michel`</t>
+  </si>
+  <si>
+    <t>`Tito Bustillo`</t>
+  </si>
+  <si>
+    <t>`Torre`</t>
+  </si>
+  <si>
+    <t>`Tuc d'Audoubert`</t>
+  </si>
+  <si>
+    <t>`Villepin`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age (U =1, M =2, L=3) </t>
   </si>
 </sst>
 </file>
@@ -791,7 +779,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -834,12 +822,12 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -854,7 +842,7 @@
         <v>448</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -867,12 +855,12 @@
       </c>
       <c r="J2" t="str">
         <f>"create ("&amp;A2&amp;":Layer{name:"&amp;B2&amp;", lat:"&amp;C2&amp;", long:"&amp;D2&amp;", elev:"&amp;E2&amp;", age:"&amp;F2&amp;", g1:"&amp;G2&amp;", g2:"&amp;H2&amp;", g3:"&amp;I2&amp;"}),"</f>
-        <v>create (`Abauntz 0`:Layer{name:"Abauntz", lat:43.00151, long:1.63333, elev:448, age:0, g1:0, g2:1, g3:1}),</v>
+        <v>create (`Abauntz`:Layer{name:"Abauntz", lat:43.00151, long:1.63333, elev:448, age:1, g1:0, g2:1, g3:1}),</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -887,7 +875,7 @@
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -899,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <f>"("&amp;A3&amp;":Layer{name:"&amp;B3&amp;", lat:"&amp;C3&amp;", long:"&amp;D3&amp;", elev:"&amp;E3&amp;", age:"&amp;F3&amp;", g1:"&amp;G3&amp;", g2:"&amp;H3&amp;", g3:"&amp;I3&amp;"}),"</f>
-        <v>(`Arancou 0`:Layer{name:"Arancou", lat:-1, long:-1, elev:-1, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" ref="J3:J40" si="0">"("&amp;A3&amp;":Layer{name:"&amp;B3&amp;", lat:"&amp;C3&amp;", long:"&amp;D3&amp;", elev:"&amp;E3&amp;", age:"&amp;F3&amp;", g1:"&amp;G3&amp;", g2:"&amp;H3&amp;", g3:"&amp;I3&amp;"}),"</f>
+        <v>(`Arancou`:Layer{name:"Arancou", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -920,7 +908,7 @@
         <v>725</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -932,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f>"("&amp;A4&amp;":Layer{name:"&amp;B4&amp;", lat:"&amp;C4&amp;", long:"&amp;D4&amp;", elev:"&amp;E4&amp;", age:"&amp;F4&amp;", g1:"&amp;G4&amp;", g2:"&amp;H4&amp;", g3:"&amp;I4&amp;"}),"</f>
-        <v>(`Bédeilhac 1`:Layer{name:"Bédeilhac", lat:42.8718, long:1.5707, elev:725, age:1, g1:1, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Bédeilhac`:Layer{name:"Bédeilhac", lat:42.8718, long:1.5707, elev:725, age:2, g1:1, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -953,7 +941,7 @@
         <v>199</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -965,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="str">
-        <f>"("&amp;A5&amp;":Layer{name:"&amp;B5&amp;", lat:"&amp;C5&amp;", long:"&amp;D5&amp;", elev:"&amp;E5&amp;", age:"&amp;F5&amp;", g1:"&amp;G5&amp;", g2:"&amp;H5&amp;", g3:"&amp;I5&amp;"}),"</f>
-        <v>(`Brassempouy 1`:Layer{name:"Brassempouy", lat:43.63, long:0.695, elev:199, age:1, g1:1, g2:4, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Brassempouy`:Layer{name:"Brassempouy", lat:43.63, long:0.695, elev:199, age:2, g1:1, g2:4, g3:1}),</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -986,7 +974,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -998,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="str">
-        <f>"("&amp;A6&amp;":Layer{name:"&amp;B6&amp;", lat:"&amp;C6&amp;", long:"&amp;D6&amp;", elev:"&amp;E6&amp;", age:"&amp;F6&amp;", g1:"&amp;G6&amp;", g2:"&amp;H6&amp;", g3:"&amp;I6&amp;"}),"</f>
-        <v>(`Cepoy 0`:Layer{name:"Cepoy", lat:-1, long:-1, elev:-1, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Cepoy`:Layer{name:"Cepoy", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1019,7 +1007,7 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1031,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="str">
-        <f>"("&amp;A7&amp;":Layer{name:"&amp;B7&amp;", lat:"&amp;C7&amp;", long:"&amp;D7&amp;", elev:"&amp;E7&amp;", age:"&amp;F7&amp;", g1:"&amp;G7&amp;", g2:"&amp;H7&amp;", g3:"&amp;I7&amp;"}),"</f>
-        <v>(`Courbet 1`:Layer{name:"Courbet", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:4, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Courbet`:Layer{name:"Courbet", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:4, g3:0}),</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1052,7 +1040,7 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1064,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="str">
-        <f>"("&amp;A8&amp;":Layer{name:"&amp;B8&amp;", lat:"&amp;C8&amp;", long:"&amp;D8&amp;", elev:"&amp;E8&amp;", age:"&amp;F8&amp;", g1:"&amp;G8&amp;", g2:"&amp;H8&amp;", g3:"&amp;I8&amp;"}),"</f>
-        <v>(`Courbet 0`:Layer{name:"Courbet", lat:-1, long:-1, elev:-1, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Courbet`:Layer{name:"Courbet", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1085,7 +1073,7 @@
         <v>48</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1097,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <f>"("&amp;A9&amp;":Layer{name:"&amp;B9&amp;", lat:"&amp;C9&amp;", long:"&amp;D9&amp;", elev:"&amp;E9&amp;", age:"&amp;F9&amp;", g1:"&amp;G9&amp;", g2:"&amp;H9&amp;", g3:"&amp;I9&amp;"}),"</f>
-        <v>(`El Pendo 0`:Layer{name:"El Pendo", lat:43.444444, long:-3.913536, elev:48, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`El Pendo`:Layer{name:"El Pendo", lat:43.444444, long:-3.913536, elev:48, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1118,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1130,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="str">
-        <f>"("&amp;A10&amp;":Layer{name:"&amp;B10&amp;", lat:"&amp;C10&amp;", long:"&amp;D10&amp;", elev:"&amp;E10&amp;", age:"&amp;F10&amp;", g1:"&amp;G10&amp;", g2:"&amp;H10&amp;", g3:"&amp;I10&amp;"}),"</f>
-        <v>(`El Pendo 2`:Layer{name:"El Pendo", lat:43.444444, long:-3.913536, elev:48, age:2, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`El Pendo`:Layer{name:"El Pendo", lat:43.444444, long:-3.913536, elev:48, age:3, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1151,7 +1139,7 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1163,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="str">
-        <f>"("&amp;A11&amp;":Layer{name:"&amp;B11&amp;", lat:"&amp;C11&amp;", long:"&amp;D11&amp;", elev:"&amp;E11&amp;", age:"&amp;F11&amp;", g1:"&amp;G11&amp;", g2:"&amp;H11&amp;", g3:"&amp;I11&amp;"}),"</f>
-        <v>(`Enléne 1`:Layer{name:"Enléne", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:3, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Enléne`:Layer{name:"Enléne", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:3, g3:0}),</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1184,7 +1172,7 @@
         <v>-1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1196,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="str">
-        <f>"("&amp;A12&amp;":Layer{name:"&amp;B12&amp;", lat:"&amp;C12&amp;", long:"&amp;D12&amp;", elev:"&amp;E12&amp;", age:"&amp;F12&amp;", g1:"&amp;G12&amp;", g2:"&amp;H12&amp;", g3:"&amp;I12&amp;"}),"</f>
-        <v>(`Espalungue 1`:Layer{name:"Espalungue", lat:-1, long:-1, elev:-1, age:1, g1:2, g2:2, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Espalungue`:Layer{name:"Espalungue", lat:-1, long:-1, elev:-1, age:2, g1:2, g2:2, g3:1}),</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1217,7 +1205,7 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1229,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="str">
-        <f>"("&amp;A13&amp;":Layer{name:"&amp;B13&amp;", lat:"&amp;C13&amp;", long:"&amp;D13&amp;", elev:"&amp;E13&amp;", age:"&amp;F13&amp;", g1:"&amp;G13&amp;", g2:"&amp;H13&amp;", g3:"&amp;I13&amp;"}),"</f>
-        <v>(`Étiolles 1`:Layer{name:"Étiolles", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Étiolles`:Layer{name:"Étiolles", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1250,7 +1238,7 @@
         <v>-1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1262,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="str">
-        <f>"("&amp;A14&amp;":Layer{name:"&amp;B14&amp;", lat:"&amp;C14&amp;", long:"&amp;D14&amp;", elev:"&amp;E14&amp;", age:"&amp;F14&amp;", g1:"&amp;G14&amp;", g2:"&amp;H14&amp;", g3:"&amp;I14&amp;"}),"</f>
-        <v>(`Fontalés 0`:Layer{name:"Fontalés", lat:-1, long:-1, elev:-1, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Fontalés`:Layer{name:"Fontalés", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1283,7 +1271,7 @@
         <v>280</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1295,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="str">
-        <f>"("&amp;A15&amp;":Layer{name:"&amp;B15&amp;", lat:"&amp;C15&amp;", long:"&amp;D15&amp;", elev:"&amp;E15&amp;", age:"&amp;F15&amp;", g1:"&amp;G15&amp;", g2:"&amp;H15&amp;", g3:"&amp;I15&amp;"}),"</f>
-        <v>(`Gazel 1`:Layer{name:"Gazel", lat:43.325619, long:2.421627, elev:280, age:1, g1:1, g2:0, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Gazel`:Layer{name:"Gazel", lat:43.325619, long:2.421627, elev:280, age:2, g1:1, g2:0, g3:0}),</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1316,7 +1304,7 @@
         <v>473</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1328,13 +1316,13 @@
         <v>3</v>
       </c>
       <c r="J16" t="str">
-        <f>"("&amp;A16&amp;":Layer{name:"&amp;B16&amp;", lat:"&amp;C16&amp;", long:"&amp;D16&amp;", elev:"&amp;E16&amp;", age:"&amp;F16&amp;", g1:"&amp;G16&amp;", g2:"&amp;H16&amp;", g3:"&amp;I16&amp;"}),"</f>
-        <v>(`Gourdan 1`:Layer{name:"Gourdan", lat:43.071355, long:0.56328, elev:473, age:1, g1:0, g2:3, g3:3}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Gourdan`:Layer{name:"Gourdan", lat:43.071355, long:0.56328, elev:473, age:2, g1:0, g2:3, g3:3}),</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1349,7 +1337,7 @@
         <v>211</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1361,13 +1349,13 @@
         <v>5</v>
       </c>
       <c r="J17" t="str">
-        <f>"("&amp;A17&amp;":Layer{name:"&amp;B17&amp;", lat:"&amp;C17&amp;", long:"&amp;D17&amp;", elev:"&amp;E17&amp;", age:"&amp;F17&amp;", g1:"&amp;G17&amp;", g2:"&amp;H17&amp;", g3:"&amp;I17&amp;"}),"</f>
-        <v>(`Isturitz 1`:Layer{name:"Isturitz", lat:43.353132, long:1.206031, elev:211, age:1, g1:2, g2:1, g3:5}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Isturitz`:Layer{name:"Isturitz", lat:43.353132, long:1.206031, elev:211, age:2, g1:2, g2:1, g3:5}),</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1382,7 +1370,7 @@
         <v>284</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1394,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="str">
-        <f>"("&amp;A18&amp;":Layer{name:"&amp;B18&amp;", lat:"&amp;C18&amp;", long:"&amp;D18&amp;", elev:"&amp;E18&amp;", age:"&amp;F18&amp;", g1:"&amp;G18&amp;", g2:"&amp;H18&amp;", g3:"&amp;I18&amp;"}),"</f>
-        <v>(`La Colombiére 0`:Layer{name:"La Colombiére", lat:46.0865, long:5.3968, elev:284, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Colombiére`:Layer{name:"La Colombiére", lat:46.0865, long:5.3968, elev:284, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1415,7 +1403,7 @@
         <v>57</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1427,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="str">
-        <f>"("&amp;A19&amp;":Layer{name:"&amp;B19&amp;", lat:"&amp;C19&amp;", long:"&amp;D19&amp;", elev:"&amp;E19&amp;", age:"&amp;F19&amp;", g1:"&amp;G19&amp;", g2:"&amp;H19&amp;", g3:"&amp;I19&amp;"}),"</f>
-        <v>(`La Crouzade 1`:Layer{name:"La Crouzade", lat:43.131008, long:3.090376, elev:57, age:1, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Crouzade`:Layer{name:"La Crouzade", lat:43.131008, long:3.090376, elev:57, age:2, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1448,7 +1436,7 @@
         <v>58</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1460,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="str">
-        <f>"("&amp;A20&amp;":Layer{name:"&amp;B20&amp;", lat:"&amp;C20&amp;", long:"&amp;D20&amp;", elev:"&amp;E20&amp;", age:"&amp;F20&amp;", g1:"&amp;G20&amp;", g2:"&amp;H20&amp;", g3:"&amp;I20&amp;"}),"</f>
-        <v>(`La Garma 1`:Layer{name:"La Garma", lat:43.408, long:-3.661, elev:58, age:1, g1:1, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Garma`:Layer{name:"La Garma", lat:43.408, long:-3.661, elev:58, age:2, g1:1, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1481,7 +1469,7 @@
         <v>229</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1493,13 +1481,13 @@
         <v>3</v>
       </c>
       <c r="J21" t="str">
-        <f>"("&amp;A21&amp;":Layer{name:"&amp;B21&amp;", lat:"&amp;C21&amp;", long:"&amp;D21&amp;", elev:"&amp;E21&amp;", age:"&amp;F21&amp;", g1:"&amp;G21&amp;", g2:"&amp;H21&amp;", g3:"&amp;I21&amp;"}),"</f>
-        <v>(`La Madeleine 0`:Layer{name:"La Madeleine", lat:44.34, long:4.4835, elev:229, age:0, g1:0, g2:1, g3:3}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Madeleine`:Layer{name:"La Madeleine", lat:44.34, long:4.4835, elev:229, age:1, g1:0, g2:1, g3:3}),</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1514,7 +1502,7 @@
         <v>229</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1526,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="J22" t="str">
-        <f>"("&amp;A22&amp;":Layer{name:"&amp;B22&amp;", lat:"&amp;C22&amp;", long:"&amp;D22&amp;", elev:"&amp;E22&amp;", age:"&amp;F22&amp;", g1:"&amp;G22&amp;", g2:"&amp;H22&amp;", g3:"&amp;I22&amp;"}),"</f>
-        <v>(`La Madeleine 1`:Layer{name:"La Madeleine", lat:44.34, long:4.4835, elev:229, age:1, g1:0, g2:9, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Madeleine`:Layer{name:"La Madeleine", lat:44.34, long:4.4835, elev:229, age:2, g1:0, g2:9, g3:1}),</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1547,7 +1535,7 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1559,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f>"("&amp;A23&amp;":Layer{name:"&amp;B23&amp;", lat:"&amp;C23&amp;", long:"&amp;D23&amp;", elev:"&amp;E23&amp;", age:"&amp;F23&amp;", g1:"&amp;G23&amp;", g2:"&amp;H23&amp;", g3:"&amp;I23&amp;"}),"</f>
-        <v>(`La Paloma 1`:Layer{name:"La Paloma", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Paloma`:Layer{name:"La Paloma", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1580,7 +1568,7 @@
         <v>574</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1592,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="str">
-        <f>"("&amp;A24&amp;":Layer{name:"&amp;B24&amp;", lat:"&amp;C24&amp;", long:"&amp;D24&amp;", elev:"&amp;E24&amp;", age:"&amp;F24&amp;", g1:"&amp;G24&amp;", g2:"&amp;H24&amp;", g3:"&amp;I24&amp;"}),"</f>
-        <v>(`La Vache 0`:Layer{name:"La Vache", lat:42.820606, long:1.587798, elev:574, age:0, g1:0, g2:5, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Vache`:Layer{name:"La Vache", lat:42.820606, long:1.587798, elev:574, age:1, g1:0, g2:5, g3:1}),</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -1613,7 +1601,7 @@
         <v>324</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1625,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="J25" t="str">
-        <f>"("&amp;A25&amp;":Layer{name:"&amp;B25&amp;", lat:"&amp;C25&amp;", long:"&amp;D25&amp;", elev:"&amp;E25&amp;", age:"&amp;F25&amp;", g1:"&amp;G25&amp;", g2:"&amp;H25&amp;", g3:"&amp;I25&amp;"}),"</f>
-        <v>(`La Viña 1`:Layer{name:"La Viña", lat:43.315107, long:-5.82587822734928, elev:324, age:1, g1:0, g2:0, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`La Viña`:Layer{name:"La Viña", lat:43.315107, long:-5.82587822734928, elev:324, age:2, g1:0, g2:0, g3:1}),</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1646,7 +1634,7 @@
         <v>547</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1658,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f>"("&amp;A26&amp;":Layer{name:"&amp;B26&amp;", lat:"&amp;C26&amp;", long:"&amp;D26&amp;", elev:"&amp;E26&amp;", age:"&amp;F26&amp;", g1:"&amp;G26&amp;", g2:"&amp;H26&amp;", g3:"&amp;I26&amp;"}),"</f>
-        <v>(`Labastide 1`:Layer{name:"Labastide", lat:43.034337, long:0.347836, elev:547, age:1, g1:0, g2:4, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Labastide`:Layer{name:"Labastide", lat:43.034337, long:0.347836, elev:547, age:2, g1:0, g2:4, g3:0}),</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1679,7 +1667,7 @@
         <v>133</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1691,13 +1679,13 @@
         <v>7</v>
       </c>
       <c r="J27" t="str">
-        <f>"("&amp;A27&amp;":Layer{name:"&amp;B27&amp;", lat:"&amp;C27&amp;", long:"&amp;D27&amp;", elev:"&amp;E27&amp;", age:"&amp;F27&amp;", g1:"&amp;G27&amp;", g2:"&amp;H27&amp;", g3:"&amp;I27&amp;"}),"</f>
-        <v>(`Las Caldas 1`:Layer{name:"Las Caldas", lat:43.299032, long:-4.07200891616137, elev:133, age:1, g1:0, g2:2, g3:7}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Las Caldas`:Layer{name:"Las Caldas", lat:43.299032, long:-4.07200891616137, elev:133, age:2, g1:0, g2:2, g3:7}),</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1712,7 +1700,7 @@
         <v>80</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1724,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="str">
-        <f>"("&amp;A28&amp;":Layer{name:"&amp;B28&amp;", lat:"&amp;C28&amp;", long:"&amp;D28&amp;", elev:"&amp;E28&amp;", age:"&amp;F28&amp;", g1:"&amp;G28&amp;", g2:"&amp;H28&amp;", g3:"&amp;I28&amp;"}),"</f>
-        <v>(`Laugerie-Basse 1`:Layer{name:"Laugerie-Basse", lat:44.94973, long:0.998276, elev:80, age:1, g1:2, g2:6, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Laugerie-Basse`:Layer{name:"Laugerie-Basse", lat:44.94973, long:0.998276, elev:80, age:2, g1:2, g2:6, g3:0}),</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1745,7 +1733,7 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1757,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="str">
-        <f>"("&amp;A29&amp;":Layer{name:"&amp;B29&amp;", lat:"&amp;C29&amp;", long:"&amp;D29&amp;", elev:"&amp;E29&amp;", age:"&amp;F29&amp;", g1:"&amp;G29&amp;", g2:"&amp;H29&amp;", g3:"&amp;I29&amp;"}),"</f>
-        <v>(`Les Espélugues 1`:Layer{name:"Les Espélugues", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Les Espélugues`:Layer{name:"Les Espélugues", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>32</v>
@@ -1778,7 +1766,7 @@
         <v>192</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1790,13 +1778,13 @@
         <v>2</v>
       </c>
       <c r="J30" t="str">
-        <f>"("&amp;A30&amp;":Layer{name:"&amp;B30&amp;", lat:"&amp;C30&amp;", long:"&amp;D30&amp;", elev:"&amp;E30&amp;", age:"&amp;F30&amp;", g1:"&amp;G30&amp;", g2:"&amp;H30&amp;", g3:"&amp;I30&amp;"}),"</f>
-        <v>(`Lespugue-Harpons 1`:Layer{name:"Lespugue-Harpons", lat:45.0533, long:1.1707, elev:192, age:1, g1:0, g2:0, g3:2}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Lespugue-Harpons`:Layer{name:"Lespugue-Harpons", lat:45.0533, long:1.1707, elev:192, age:2, g1:0, g2:0, g3:2}),</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1811,7 +1799,7 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -1823,13 +1811,13 @@
         <v>-1</v>
       </c>
       <c r="J31" t="str">
-        <f>"("&amp;A31&amp;":Layer{name:"&amp;B31&amp;", lat:"&amp;C31&amp;", long:"&amp;D31&amp;", elev:"&amp;E31&amp;", age:"&amp;F31&amp;", g1:"&amp;G31&amp;", g2:"&amp;H31&amp;", g3:"&amp;I31&amp;"}),"</f>
-        <v>(`Limeuil 0`:Layer{name:"Limeuil", lat:44.883, long:0.89, elev:50, age:0, g1:-1, g2:-1, g3:-1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Limeuil`:Layer{name:"Limeuil", lat:44.883, long:0.89, elev:50, age:1, g1:-1, g2:-1, g3:-1}),</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1844,7 +1832,7 @@
         <v>555</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1856,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="str">
-        <f>"("&amp;A32&amp;":Layer{name:"&amp;B32&amp;", lat:"&amp;C32&amp;", long:"&amp;D32&amp;", elev:"&amp;E32&amp;", age:"&amp;F32&amp;", g1:"&amp;G32&amp;", g2:"&amp;H32&amp;", g3:"&amp;I32&amp;"}),"</f>
-        <v>(`Lortet 0`:Layer{name:"Lortet", lat:43.043889, long:0.38, elev:555, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Lortet`:Layer{name:"Lortet", lat:43.043889, long:0.38, elev:555, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1877,7 +1865,7 @@
         <v>433</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -1889,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="J33" t="str">
-        <f>"("&amp;A33&amp;":Layer{name:"&amp;B33&amp;", lat:"&amp;C33&amp;", long:"&amp;D33&amp;", elev:"&amp;E33&amp;", age:"&amp;F33&amp;", g1:"&amp;G33&amp;", g2:"&amp;H33&amp;", g3:"&amp;I33&amp;"}),"</f>
-        <v>(`Mas d'Azil 1`:Layer{name:"Mas d'Azil", lat:43.069, long:1.354, elev:433, age:1, g1:5, g2:9, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Mas d'Azil`:Layer{name:"Mas d'Azil", lat:43.069, long:1.354, elev:433, age:2, g1:5, g2:9, g3:1}),</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1910,7 +1898,7 @@
         <v>433</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1922,13 +1910,13 @@
         <v>1</v>
       </c>
       <c r="J34" t="str">
-        <f>"("&amp;A34&amp;":Layer{name:"&amp;B34&amp;", lat:"&amp;C34&amp;", long:"&amp;D34&amp;", elev:"&amp;E34&amp;", age:"&amp;F34&amp;", g1:"&amp;G34&amp;", g2:"&amp;H34&amp;", g3:"&amp;I34&amp;"}),"</f>
-        <v>(`Mas d'Azil 0`:Layer{name:"Mas d'Azil", lat:43.069, long:1.354, elev:433, age:0, g1:0, g2:0, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Mas d'Azil`:Layer{name:"Mas d'Azil", lat:43.069, long:1.354, elev:433, age:1, g1:0, g2:0, g3:1}),</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1943,7 +1931,7 @@
         <v>-1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1955,13 +1943,13 @@
         <v>1</v>
       </c>
       <c r="J35" t="str">
-        <f>"("&amp;A35&amp;":Layer{name:"&amp;B35&amp;", lat:"&amp;C35&amp;", long:"&amp;D35&amp;", elev:"&amp;E35&amp;", age:"&amp;F35&amp;", g1:"&amp;G35&amp;", g2:"&amp;H35&amp;", g3:"&amp;I35&amp;"}),"</f>
-        <v>(`Massat 2`:Layer{name:"Massat", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:0, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Massat`:Layer{name:"Massat", lat:-1, long:-1, elev:-1, age:3, g1:0, g2:0, g3:1}),</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1976,7 +1964,7 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1988,13 +1976,13 @@
         <v>3</v>
       </c>
       <c r="J36" t="str">
-        <f>"("&amp;A36&amp;":Layer{name:"&amp;B36&amp;", lat:"&amp;C36&amp;", long:"&amp;D36&amp;", elev:"&amp;E36&amp;", age:"&amp;F36&amp;", g1:"&amp;G36&amp;", g2:"&amp;H36&amp;", g3:"&amp;I36&amp;"}),"</f>
-        <v>(`Montastruc 1`:Layer{name:"Montastruc", lat:-1, long:-1, elev:-1, age:1, g1:1, g2:8, g3:3}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Montastruc`:Layer{name:"Montastruc", lat:-1, long:-1, elev:-1, age:2, g1:1, g2:8, g3:3}),</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -2009,7 +1997,7 @@
         <v>-1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2021,13 +2009,13 @@
         <v>1</v>
       </c>
       <c r="J37" t="str">
-        <f>"("&amp;A37&amp;":Layer{name:"&amp;B37&amp;", lat:"&amp;C37&amp;", long:"&amp;D37&amp;", elev:"&amp;E37&amp;", age:"&amp;F37&amp;", g1:"&amp;G37&amp;", g2:"&amp;H37&amp;", g3:"&amp;I37&amp;"}),"</f>
-        <v>(`Saint-Michel 1`:Layer{name:"Saint-Michel", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:1}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Saint-Michel`:Layer{name:"Saint-Michel", lat:-1, long:-1, elev:-1, age:2, g1:0, g2:1, g3:1}),</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -2042,7 +2030,7 @@
         <v>38</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2054,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="str">
-        <f>"("&amp;A38&amp;":Layer{name:"&amp;B38&amp;", lat:"&amp;C38&amp;", long:"&amp;D38&amp;", elev:"&amp;E38&amp;", age:"&amp;F38&amp;", g1:"&amp;G38&amp;", g2:"&amp;H38&amp;", g3:"&amp;I38&amp;"}),"</f>
-        <v>(`Tito Bustillo 1`:Layer{name:"Tito Bustillo", lat:43.4608333333333, long:-5.06777777777777, elev:38, age:1, g1:0, g2:2, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Tito Bustillo`:Layer{name:"Tito Bustillo", lat:43.4608333333333, long:-5.06777777777777, elev:38, age:2, g1:0, g2:2, g3:0}),</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -2075,7 +2063,7 @@
         <v>-1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2087,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="str">
-        <f>"("&amp;A39&amp;":Layer{name:"&amp;B39&amp;", lat:"&amp;C39&amp;", long:"&amp;D39&amp;", elev:"&amp;E39&amp;", age:"&amp;F39&amp;", g1:"&amp;G39&amp;", g2:"&amp;H39&amp;", g3:"&amp;I39&amp;"}),"</f>
-        <v>(`Torre 0`:Layer{name:"Torre", lat:-1, long:-1, elev:-1, age:0, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Torre`:Layer{name:"Torre", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -2108,7 +2096,7 @@
         <v>463</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2120,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="str">
-        <f>"("&amp;A40&amp;":Layer{name:"&amp;B40&amp;", lat:"&amp;C40&amp;", long:"&amp;D40&amp;", elev:"&amp;E40&amp;", age:"&amp;F40&amp;", g1:"&amp;G40&amp;", g2:"&amp;H40&amp;", g3:"&amp;I40&amp;"}),"</f>
-        <v>(`Tuc d'Audoubert 1`:Layer{name:"Tuc d'Audoubert", lat:43.0325, long:1.20215, elev:463, age:1, g1:0, g2:1, g3:0}),</v>
+        <f t="shared" si="0"/>
+        <v>(`Tuc d'Audoubert`:Layer{name:"Tuc d'Audoubert", lat:43.0325, long:1.20215, elev:463, age:2, g1:0, g2:1, g3:0}),</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2141,7 +2129,7 @@
         <v>-1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2154,7 +2142,7 @@
       </c>
       <c r="J41" t="str">
         <f>"("&amp;A41&amp;":Layer{name:"&amp;B41&amp;", lat:"&amp;C41&amp;", long:"&amp;D41&amp;", elev:"&amp;E41&amp;", age:"&amp;F41&amp;", g1:"&amp;G41&amp;", g2:"&amp;H41&amp;", g3:"&amp;I41&amp;"})"</f>
-        <v>(`Villepin 0`:Layer{name:"Villepin", lat:-1, long:-1, elev:-1, age:0, g1:0, g2:0, g3:1})</v>
+        <v>(`Villepin`:Layer{name:"Villepin", lat:-1, long:-1, elev:-1, age:1, g1:0, g2:0, g3:1})</v>
       </c>
     </row>
   </sheetData>
